--- a/NoGracias/ScrumDogs/Logs.xlsx
+++ b/NoGracias/ScrumDogs/Logs.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew\Desktop\EECS_448\Project3\Scrum Artifacts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew\Desktop\EECS_448\Project3\NoGracias\NoGracias\ScrumDogs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11496" windowHeight="7764"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11496" windowHeight="7764" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt Chart" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Task</t>
   </si>
@@ -134,6 +134,12 @@
   </si>
   <si>
     <t>Turn Execution</t>
+  </si>
+  <si>
+    <t>Task Name</t>
+  </si>
+  <si>
+    <t>Responsible</t>
   </si>
 </sst>
 </file>
@@ -469,12 +475,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="486509120"/>
-        <c:axId val="486497752"/>
+        <c:axId val="233450344"/>
+        <c:axId val="233446816"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="486509120"/>
+        <c:axId val="233450344"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -511,7 +517,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="486497752"/>
+        <c:crossAx val="233446816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -519,7 +525,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="486497752"/>
+        <c:axId val="233446816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="43026"/>
@@ -571,7 +577,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="486509120"/>
+        <c:crossAx val="233450344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1454,7 +1460,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
@@ -1761,16 +1767,27 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.6640625" customWidth="1"/>
     <col min="2" max="3" width="18.21875" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/NoGracias/ScrumDogs/Logs.xlsx
+++ b/NoGracias/ScrumDogs/Logs.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="52">
   <si>
     <t>Task</t>
   </si>
@@ -140,6 +140,48 @@
   </si>
   <si>
     <t>Responsible</t>
+  </si>
+  <si>
+    <t>Hours</t>
+  </si>
+  <si>
+    <t>Kaiser M</t>
+  </si>
+  <si>
+    <t>Game Pseudocode</t>
+  </si>
+  <si>
+    <t>Juzer Z</t>
+  </si>
+  <si>
+    <t>Design Template</t>
+  </si>
+  <si>
+    <t>Andrew G</t>
+  </si>
+  <si>
+    <t>Server Client Set Up</t>
+  </si>
+  <si>
+    <t>Main Menu Form</t>
+  </si>
+  <si>
+    <t>Multithreded Server</t>
+  </si>
+  <si>
+    <t>Game Code</t>
+  </si>
+  <si>
+    <t>Server Template</t>
+  </si>
+  <si>
+    <t>Card Table Design</t>
+  </si>
+  <si>
+    <t>Multi Client Interaction</t>
+  </si>
+  <si>
+    <t>Priority</t>
   </si>
 </sst>
 </file>
@@ -475,12 +517,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="233450344"/>
-        <c:axId val="233446816"/>
+        <c:axId val="234949888"/>
+        <c:axId val="234952632"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="233450344"/>
+        <c:axId val="234949888"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -517,7 +559,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="233446816"/>
+        <c:crossAx val="234952632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -525,7 +567,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="233446816"/>
+        <c:axId val="234952632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="43026"/>
@@ -577,7 +619,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="233450344"/>
+        <c:crossAx val="234949888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1767,24 +1809,156 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" customWidth="1"/>
     <col min="2" max="3" width="18.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>37</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2">
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10">
+        <v>6</v>
+      </c>
+      <c r="D10">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/NoGracias/ScrumDogs/Logs.xlsx
+++ b/NoGracias/ScrumDogs/Logs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11496" windowHeight="7764" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11496" windowHeight="7764"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt Chart" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="67">
   <si>
     <t>Task</t>
   </si>
@@ -163,18 +163,12 @@
     <t>Server Client Set Up</t>
   </si>
   <si>
-    <t>Main Menu Form</t>
-  </si>
-  <si>
     <t>Multithreded Server</t>
   </si>
   <si>
     <t>Game Code</t>
   </si>
   <si>
-    <t>Server Template</t>
-  </si>
-  <si>
     <t>Card Table Design</t>
   </si>
   <si>
@@ -182,6 +176,57 @@
   </si>
   <si>
     <t>Priority</t>
+  </si>
+  <si>
+    <t>Find IP and Port address to host the game on a local computer</t>
+  </si>
+  <si>
+    <t>Locally connect to the server off another instance of the game</t>
+  </si>
+  <si>
+    <t>Create basis for implementation</t>
+  </si>
+  <si>
+    <t>Create UML class diagram to think about what methods are needed</t>
+  </si>
+  <si>
+    <t>Draw out ideas for best options for all forms that might be necessary</t>
+  </si>
+  <si>
+    <t>Talk to Kaiser about how the implementation looks on the backend to create user friendly menu</t>
+  </si>
+  <si>
+    <t>Figured out we need more processes, research how to create multiple threads</t>
+  </si>
+  <si>
+    <t>Run threads successfully without any deadlocks or race condition issues</t>
+  </si>
+  <si>
+    <t>Main Menu and Server Form</t>
+  </si>
+  <si>
+    <t>Research design techniques in Visual Studio</t>
+  </si>
+  <si>
+    <t>Create the outlines for the boxes and begin to rename the variables</t>
+  </si>
+  <si>
+    <t>Make scaleable</t>
+  </si>
+  <si>
+    <t>Make cards for the table, make chips for the table</t>
+  </si>
+  <si>
+    <t>Design player spots on the boards and locate positions for all cards and chips</t>
+  </si>
+  <si>
+    <t>Using the main menu and server form, show that clients can interact with each other</t>
+  </si>
+  <si>
+    <t>Design checkboxes and messages to the console to prove the program is interacting correctly</t>
+  </si>
+  <si>
+    <t>Take the Card table design and begin population of the User Interface</t>
   </si>
 </sst>
 </file>
@@ -1502,7 +1547,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
@@ -1809,15 +1854,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" customWidth="1"/>
+    <col min="1" max="1" width="28.44140625" customWidth="1"/>
     <col min="2" max="3" width="18.21875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1832,7 +1877,7 @@
         <v>38</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -1851,114 +1896,180 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>4</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>6</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8">
-        <v>5</v>
-      </c>
-      <c r="D8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9">
-        <v>6</v>
-      </c>
-      <c r="D9">
-        <v>8</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>47</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23">
+        <v>5</v>
+      </c>
+      <c r="D23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27">
+        <v>6</v>
+      </c>
+      <c r="D27">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" t="s">
         <v>41</v>
       </c>
-      <c r="C10">
+      <c r="C31">
         <v>6</v>
       </c>
-      <c r="D10">
-        <v>9</v>
+      <c r="D31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/NoGracias/ScrumDogs/Logs.xlsx
+++ b/NoGracias/ScrumDogs/Logs.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="68">
   <si>
     <t>Task</t>
   </si>
@@ -227,15 +227,26 @@
   </si>
   <si>
     <t>Take the Card table design and begin population of the User Interface</t>
+  </si>
+  <si>
+    <t>Full Design on png file in the folder</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="36"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -268,11 +279,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1251,16 +1263,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>502920</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>87630</xdr:rowOff>
+      <xdr:rowOff>163830</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>87630</xdr:rowOff>
+      <xdr:rowOff>163830</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1545,10 +1557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1668,12 +1680,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:5" ht="46.2" x14ac:dyDescent="0.85">
+      <c r="E21" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C22" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1856,7 +1874,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
